--- a/output_final.xlsx
+++ b/output_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Documents\Projects\panel_matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D56AEA1-7775-4DA2-ADA5-AAC63F18A43F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B1AB5-A3FC-463C-B299-CA323BCFFF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping_output" sheetId="1" r:id="rId1"/>
@@ -4407,7 +4407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -46337,7 +46337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
